--- a/Profiling/文本部分核心变量.xlsx
+++ b/Profiling/文本部分核心变量.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7B79E255-950D-4924-A4E6-FDAEB618BC1D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B5C4C0D-364A-49D6-8DF1-185F4F108673}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1665676036446540000</t>
   </si>
@@ -54,12 +55,27 @@
   <si>
     <t>1639108157695750000</t>
   </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>featNum</t>
+  </si>
+  <si>
+    <t>logloss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +102,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -123,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -138,6 +161,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -156,6 +194,1079 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>logloss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.164266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16426399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16433300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16425799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.164274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16431799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16425100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16431200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.164331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16425999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AB3-47D5-8242-2F6BF850C2F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="394297696"/>
+        <c:axId val="404031008"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.73299000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73320200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73256600000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73310799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73292100000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73295600000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73328300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73284899999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.732873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73272999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73328000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AB3-47D5-8242-2F6BF850C2F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="393927552"/>
+        <c:axId val="422761696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394297696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404031008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404031008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394297696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="422761696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393927552"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="393927552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="422761696"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341619B0-A024-431B-BA56-AC3DCD5FFAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +1636,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541254F-4678-4EC2-B213-616A2EEB7DB6}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>867</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.73299000000000003</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.34416099999999999</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.164266</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>747</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.73320200000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.34414499999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.16426399999999999</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>732</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.73256600000000005</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.34611900000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.16433300000000001</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>726</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.73310799999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.34659299999999998</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.16425799999999999</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>719</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.73292100000000004</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.34544799999999998</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.164274</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>714</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.73295600000000005</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.346049</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.16431799999999999</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>706</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.73328300000000002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.34585500000000002</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.16425100000000001</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>694</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.73284899999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.34574100000000002</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.16431200000000001</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>689</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.732873</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.345611</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.164331</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>685</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.73272999999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.34479199999999999</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.164296</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>680</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.73328000000000004</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.34676699999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.16425999999999999</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Profiling/文本部分核心变量.xlsx
+++ b/Profiling/文本部分核心变量.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B5C4C0D-364A-49D6-8DF1-185F4F108673}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BA620CC-E319-45C1-80F4-37D2930FAF08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>1665676036446540000</t>
   </si>
@@ -73,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -146,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -172,18 +173,63 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -584,6 +630,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="422761696"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1532,74 +1579,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>6.4691200000000004E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>5.5404560722857001E+18</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.8114509999999999E-2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"'"&amp;D2</f>
+        <v>'5540456072285700000</v>
+      </c>
+      <c r="G2" t="str">
+        <f>F2</f>
+        <v>'5540456072285700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>6.2725320000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>3.7287144233357798E+18</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.248058E-2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F8" si="0">"'"&amp;D3</f>
+        <v>'3728714423335780000</v>
+      </c>
+      <c r="G3" t="str">
+        <f>G2&amp;"',"&amp;F3</f>
+        <v>'5540456072285700000','3728714423335780000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>5.9665459999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>5.0680902432137902E+18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.0385469999999999E-2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>'5068090243213790000</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G8" si="1">G3&amp;"',"&amp;F4</f>
+        <v>'5540456072285700000','3728714423335780000','5068090243213790000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>5.9273489999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>2.70813992228386E+18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.7036869999999999E-2</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>'2708139922283860000</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>'5540456072285700000','3728714423335780000','5068090243213790000','2708139922283860000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>5.6903469999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>3.4089835159637402E+18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.278292E-2</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>'3408983515963740000</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>'5540456072285700000','3728714423335780000','5068090243213790000','2708139922283860000','3408983515963740000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>4.7380949999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>1.71102278645008E+18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.1997890000000001E-2</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>'1711022786450080000</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>'5540456072285700000','3728714423335780000','5068090243213790000','2708139922283860000','3408983515963740000','1711022786450080000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>4.486047E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>5.2361676301891E+18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.060346E-2</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>'5236167630189100000</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>'5540456072285700000','3728714423335780000','5068090243213790000','2708139922283860000','3408983515963740000','1711022786450080000','5236167630189100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1754,7 @@
         <v>4.4207820000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1762,7 @@
         <v>4.3198670000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1623,13 +1770,304 @@
         <v>3.7984789999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>3.645603E-2</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="13">
+        <v>2.8114509999999999E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5.5404560722857001E+18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="14">
+        <v>383</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2.248058E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3.7287144233357798E+18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="12">
+        <v>559</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2.0385469999999999E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5.0680902432137902E+18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="14">
+        <v>236</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1.7036869999999999E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2.70813992228386E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="12">
+        <v>336</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1.278292E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3.4089835159637402E+18</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="14">
+        <v>90</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1.1997890000000001E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.71102278645008E+18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="12">
+        <v>588</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1.060346E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5.2361676301891E+18</v>
+      </c>
+      <c r="H22" s="13">
+        <v>2.8114509999999999E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5.5404560722857001E+18</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>9.9093040000000007E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.00563110076757E+18</v>
+      </c>
+      <c r="H23" s="14">
+        <v>383</v>
+      </c>
+      <c r="I23" s="15">
+        <v>2.248058E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>3.7287144233357798E+18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="12">
+        <v>73</v>
+      </c>
+      <c r="F24" s="13">
+        <v>9.4961070000000002E-3</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1.6033611051249101E+17</v>
+      </c>
+      <c r="H24" s="12">
+        <v>559</v>
+      </c>
+      <c r="I24" s="13">
+        <v>2.0385469999999999E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5.0680902432137902E+18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="14">
+        <v>350</v>
+      </c>
+      <c r="F25" s="15">
+        <v>8.8437329999999995E-3</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3.4881469736261801E+18</v>
+      </c>
+      <c r="H25" s="14">
+        <v>236</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1.7036869999999999E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2.70813992228386E+18</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="12">
+        <v>576</v>
+      </c>
+      <c r="F26" s="13">
+        <v>7.4754050000000001E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>5.1571965439037798E+18</v>
+      </c>
+      <c r="H26" s="12">
+        <v>336</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1.278292E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>3.4089835159637402E+18</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="14">
+        <v>478</v>
+      </c>
+      <c r="F27" s="15">
+        <v>7.1696370000000004E-3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4.5119393689610501E+18</v>
+      </c>
+      <c r="H27" s="14">
+        <v>90</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1.1997890000000001E-2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.71102278645008E+18</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="12">
+        <v>601</v>
+      </c>
+      <c r="F28" s="13">
+        <v>7.1667359999999999E-3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5.3122773600653302E+18</v>
+      </c>
+      <c r="H28" s="14">
+        <v>588</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1.060346E-2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>5.2361676301891E+18</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="14">
+        <v>383</v>
+      </c>
+      <c r="E29" s="14">
+        <v>618</v>
+      </c>
+      <c r="F29" s="15">
+        <v>4.3258510000000003E-3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>5.4283723492732897E+18</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="12">
+        <v>559</v>
+      </c>
+      <c r="E30" s="12">
+        <v>188</v>
+      </c>
+      <c r="F30" s="13">
+        <v>4.2182499999999998E-3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2.3562979951313603E+18</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="14">
+        <v>236</v>
+      </c>
+      <c r="E31" s="14">
+        <v>272</v>
+      </c>
+      <c r="F31" s="15">
+        <v>3.7480650000000001E-3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2.9532296121831997E+18</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D32" s="12">
+        <v>336</v>
+      </c>
+      <c r="E32" s="12">
+        <v>628</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2.9925759999999998E-3</v>
+      </c>
+      <c r="G32" s="7">
+        <v>5.4944911498476902E+18</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="14">
+        <v>90</v>
+      </c>
+      <c r="E33" s="14">
+        <v>440</v>
+      </c>
+      <c r="F33" s="15">
+        <v>2.6642910000000001E-3</v>
+      </c>
+      <c r="G33" s="8">
+        <v>4.1810028135213998E+18</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="12">
+        <v>588</v>
+      </c>
+      <c r="E34" s="12">
+        <v>390</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2.6055829999999999E-3</v>
+      </c>
+      <c r="G34" s="7">
+        <v>3.79292093367603E+18</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1642,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541254F-4678-4EC2-B213-616A2EEB7DB6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
@@ -1835,4 +2273,433 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E8EA4-FBC2-414B-B0F1-6A5A36B73C38}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0.73317900000000003</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.34566000000000002</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1153</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.16436400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>0.73245899999999997</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.34348499999999998</v>
+      </c>
+      <c r="C3" s="8">
+        <v>891</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.164378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>0.73313300000000003</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.34598800000000002</v>
+      </c>
+      <c r="C4" s="7">
+        <v>735</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.16433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>0.73295299999999997</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.345082</v>
+      </c>
+      <c r="C5" s="8">
+        <v>677</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.16433900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>0.73289499999999996</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.34610999999999997</v>
+      </c>
+      <c r="C6" s="7">
+        <v>626</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.164354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>0.73369600000000001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.34617599999999998</v>
+      </c>
+      <c r="C7" s="8">
+        <v>606</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.164294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>0.73286200000000001</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.344003</v>
+      </c>
+      <c r="C8" s="7">
+        <v>586</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.164379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>0.73273100000000002</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.344723</v>
+      </c>
+      <c r="C9" s="8">
+        <v>560</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.16435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>0.73302199999999995</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.34576200000000001</v>
+      </c>
+      <c r="C10" s="7">
+        <v>542</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.16433200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>0.73299099999999995</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.34556100000000001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>529</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.16437499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>0.73289400000000005</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.34487299999999999</v>
+      </c>
+      <c r="C12" s="7">
+        <v>520</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.16437499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>0.73282400000000003</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.343893</v>
+      </c>
+      <c r="C13" s="8">
+        <v>513</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.164323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>0.73272400000000004</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.34496700000000002</v>
+      </c>
+      <c r="C14" s="7">
+        <v>502</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.16437599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>0.73368</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.344028</v>
+      </c>
+      <c r="C15" s="8">
+        <v>480</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.16425600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>0.73316000000000003</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.34589700000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <v>475</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.16436500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>0.73323400000000005</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.346779</v>
+      </c>
+      <c r="C17" s="8">
+        <v>472</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.164352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>0.73290200000000005</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.342219</v>
+      </c>
+      <c r="C18" s="7">
+        <v>464</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.164297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>0.73364600000000002</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.34692800000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>447</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.16426099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>0.73251699999999997</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.34497800000000001</v>
+      </c>
+      <c r="C20" s="7">
+        <v>445</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.16444500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>0.733047</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.34529100000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>439</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.16431299999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>0.73325899999999999</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.34567799999999999</v>
+      </c>
+      <c r="C22" s="7">
+        <v>432</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.16430800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>0.73335099999999998</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.34342400000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>430</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.16431000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>0.73351999999999995</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.34555999999999998</v>
+      </c>
+      <c r="C24" s="7">
+        <v>427</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.164272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>0.73409400000000002</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.34574300000000002</v>
+      </c>
+      <c r="C25" s="8">
+        <v>420</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.164242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>0.73318300000000003</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.34542800000000001</v>
+      </c>
+      <c r="C26" s="7">
+        <v>417</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.164329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>0.73280800000000001</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.34384900000000002</v>
+      </c>
+      <c r="C27" s="8">
+        <v>416</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.164356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>0.73323000000000005</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.34386899999999998</v>
+      </c>
+      <c r="C28" s="7">
+        <v>411</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.16427600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>0.73334299999999997</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.34634300000000001</v>
+      </c>
+      <c r="C29" s="8">
+        <v>409</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.16431200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D29">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A29">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Profiling/文本部分核心变量.xlsx
+++ b/Profiling/文本部分核心变量.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B5C4C0D-364A-49D6-8DF1-185F4F108673}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1665676036446540000</t>
   </si>
@@ -67,15 +66,22 @@
   <si>
     <t>logloss</t>
   </si>
+  <si>
+    <t>{'colsample_bytree': 1, 'leaf': 0, 'learning_rate': 3, 'max_bin': 1, 'subsample': 3}</t>
+  </si>
+  <si>
+    <t>{'colsample_bytree': 1, 'leaf': 0, 'learning_rate': 0, 'max_bin': 0, 'subsample': 3}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -146,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -172,11 +184,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -197,7 +212,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -211,6 +226,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -315,7 +331,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AB3-47D5-8242-2F6BF850C2F2}"/>
             </c:ext>
@@ -331,8 +347,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394297696"/>
-        <c:axId val="404031008"/>
+        <c:axId val="2126671184"/>
+        <c:axId val="2126683696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -406,7 +422,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AB3-47D5-8242-2F6BF850C2F2}"/>
             </c:ext>
@@ -422,11 +438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393927552"/>
-        <c:axId val="422761696"/>
+        <c:axId val="2126667920"/>
+        <c:axId val="2126682608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394297696"/>
+        <c:axId val="2126671184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404031008"/>
+        <c:crossAx val="2126683696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -476,7 +492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404031008"/>
+        <c:axId val="2126683696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +543,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394297696"/>
+        <c:crossAx val="2126671184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422761696"/>
+        <c:axId val="2126682608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,12 +585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393927552"/>
+        <c:crossAx val="2126667920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="393927552"/>
+        <c:axId val="2126667920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +599,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422761696"/>
+        <c:crossAx val="2126682608"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -599,6 +616,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,14 +648,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1248,7 +1266,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341619B0-A024-431B-BA56-AC3DCD5FFAE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341619B0-A024-431B-BA56-AC3DCD5FFAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1639,11 +1657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541254F-4678-4EC2-B213-616A2EEB7DB6}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1830,9 +1848,20 @@
       </c>
       <c r="E12" s="5"/>
     </row>
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Profiling/文本部分核心变量.xlsx
+++ b/Profiling/文本部分核心变量.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BA620CC-E319-45C1-80F4-37D2930FAF08}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01693E95-BC3A-49E2-B751-1FE6A6EFC30E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>1665676036446540000</t>
   </si>
@@ -68,6 +69,14 @@
   <si>
     <t>logloss</t>
   </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF52B4F8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -147,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,22 +214,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1581,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
@@ -2077,6 +2095,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE31EBFA-8C0D-46D1-BF93-71338A62BA44}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="18">
+        <v>519888</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="18">
+        <v>0.16384299999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>35608</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <f>(SUM(B2:B4)-F14)/2/SUM(B2:B4)</f>
+        <v>3.8160580610807855E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>39852</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>40184</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>39372</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>37254</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>32184</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>32412</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>43623</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>55669</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>61354</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>59170</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3.8160580610807897E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>43206</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>0.66166000000000003</v>
+      </c>
+      <c r="D14" s="17">
+        <v>17.759</v>
+      </c>
+      <c r="E14">
+        <v>4.4464300000000003</v>
+      </c>
+      <c r="F14">
+        <f>(E14-C14)*$K$1/($C$14+$D$14)</f>
+        <v>106817.91563168747</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>3.5919451311733699E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B541254F-4678-4EC2-B213-616A2EEB7DB6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2275,7 +2560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E8EA4-FBC2-414B-B0F1-6A5A36B73C38}">
   <dimension ref="A1:D29"/>
   <sheetViews>
